--- a/Project/Work Breakdown Structure.xlsx
+++ b/Project/Work Breakdown Structure.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\IdeaProjects\OliveiraGant\ganttproject\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D055203-7CCB-4874-9438-1AFAF03CD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC793A43-3138-EA4E-A8C9-800388C0AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="888" windowWidth="21576" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{14A05182-E864-6745-8A11-9D578FA47DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,27 +36,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Todo</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Reviewing</t>
-  </si>
-  <si>
-    <t>Done</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">2.0 Implement feature 2 </t>
+  </si>
+  <si>
+    <t>1.0 Implement feature 1</t>
+  </si>
+  <si>
+    <t>3.0 Upload sprints to github (Todo agente)</t>
+  </si>
+  <si>
+    <t>3.1 Upload the phase 1 sprint 1 files</t>
+  </si>
+  <si>
+    <t>3.2 Upload the phase 2 sprint 1 files</t>
+  </si>
+  <si>
+    <t>3.1.3 Upload the workdown structure (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.1.1 Upload the produced work and reviews (by the responsible for the work)</t>
+  </si>
+  <si>
+    <t>3.3 Upload the phase 2 sprint 2 files</t>
+  </si>
+  <si>
+    <t>3.4 Upload the phase 2 sprint 3 files</t>
+  </si>
+  <si>
+    <t>3.5 Upload the phase 2 sprint 3 files</t>
+  </si>
+  <si>
+    <t>3.2.1 Upload the produced work and reviews (by the responsible for the work)</t>
+  </si>
+  <si>
+    <t>3.2.3 Upload the workdown structure (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.3.1 Upload the produced work and reviews (by the responsible for the work)</t>
+  </si>
+  <si>
+    <t>3.3.2 Uploasdthe scrum board (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.3.3 Upload the workdown structure (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.5.3 Upload the workdown structure (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.5.1 Upload the produced work and reviews (by the responsible for the work)</t>
+  </si>
+  <si>
+    <t>3.4.3 Upload the workdown structure (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.4.1 Upload the produced work and reviews (by the responsible for the work)</t>
+  </si>
+  <si>
+    <t>4.0 Take metrics (Todo agente)</t>
+  </si>
+  <si>
+    <t>4.2 Produce a report from the file generated</t>
+  </si>
+  <si>
+    <t>4.3 Review reports produced</t>
+  </si>
+  <si>
+    <t>4.1 Produce the review excel sheets using the plugin</t>
+  </si>
+  <si>
+    <t>3.1.2 Upload the scrum board (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.1.4 Upload the burndown chart (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.2.2 Upload the scrum board (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.4.2 Upload the scrum board (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.5.2 Upload the scrum board (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.5.4 Upload the burndown chart (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.4.4 Upload the burndown chart (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.3.4 Upload the burndown chart (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>3.2.4 Upload the burndown chart (by the scrum master of the sprint)</t>
+  </si>
+  <si>
+    <t>Work breakdown structure</t>
+  </si>
+  <si>
+    <t>5.0 Make use cases diagrams</t>
+  </si>
+  <si>
+    <t>5.1 Produce an exaustive set of use case diagrams</t>
+  </si>
+  <si>
+    <t>5.2 Review the diagrams</t>
+  </si>
+  <si>
+    <t>1.1 Discover how to implement the feature</t>
+  </si>
+  <si>
+    <t>1.2 Implement the feature</t>
+  </si>
+  <si>
+    <t>1.3 Make tests for the feature</t>
+  </si>
+  <si>
+    <t>1.4 Show to the rest of the group the results</t>
+  </si>
+  <si>
+    <t>2.2 Implement the feature</t>
+  </si>
+  <si>
+    <t>2.1 Discover how to implement the feature</t>
+  </si>
+  <si>
+    <t>2.3 Make tests for the feature</t>
+  </si>
+  <si>
+    <t>2.4 Show to the rest of the group the results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,48 +184,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,20 +221,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +264,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -175,7 +276,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -222,6 +323,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -257,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,235 +543,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8413E47-7C68-6A43-BD6C-4E89418645ED}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>